--- a/threat-analysis.xlsx
+++ b/threat-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yashobapat/work/nyu_stuff/uptane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887AAB5C-C69F-B14B-83D6-72AD7B3F165A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A73590D-F621-164A-8B5A-AAB02F391D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{69182C6E-58CA-644F-AA8F-08DD33FA77C0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="1" xr2:uid="{69182C6E-58CA-644F-AA8F-08DD33FA77C0}"/>
   </bookViews>
   <sheets>
     <sheet name="strawman ota" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="185">
   <si>
     <t>Component</t>
   </si>
@@ -532,6 +532,66 @@
   </si>
   <si>
     <t>Each component's items are physically protected by anti-tamper enclosures</t>
+  </si>
+  <si>
+    <t>An attacker with unauthorized access can bypass the full verification of the primary and make it either skip the process or make it perform partial verification</t>
+  </si>
+  <si>
+    <t>Cause an ECU to install a previously valid software revision that is older than the currently installed version.</t>
+  </si>
+  <si>
+    <t>Skip Verification</t>
+  </si>
+  <si>
+    <t>Elevation of Privilege</t>
+  </si>
+  <si>
+    <t>Denial Of Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An attacker can intercept and alter the image being sent from the image repository and the director could receive an outdated/incorrect image. </t>
+  </si>
+  <si>
+    <t>Tampering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Director Alteration attack </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An update package being tampered with can lead to a safety critical update not being delivered or being misdelivered to the target vehicle </t>
+  </si>
+  <si>
+    <t>An attacker can cause an ECU to install and run an arbitrary piece of software of the attacker's choice</t>
+  </si>
+  <si>
+    <t>An update package being tampered with at the director can lead to mix-and-match, rollback attacks, etc. Although this will be detected by the vehicle upon receipt from the director which could potentially render the vehicle inoperational.</t>
+  </si>
+  <si>
+    <t>A skip verification attack on a critical update can cause heavy operational losses and issues to the vehicle</t>
+  </si>
+  <si>
+    <t>A rollback attack on a critical update can cause heavy operational losses and issues to the vehicle</t>
+  </si>
+  <si>
+    <t>A partial bundle installation attack on a critical update can cause heavy operational losses and issues to the vehicle</t>
+  </si>
+  <si>
+    <t>A malicious update image could be supplied to the image server, compromising the update system wholly and leaving room to arbitrary software attacks</t>
+  </si>
+  <si>
+    <t>Image compromise attack</t>
+  </si>
+  <si>
+    <t>A compromised image from the source could lead direct safety implications to the user</t>
+  </si>
+  <si>
+    <t>A compromised image from the source could lead direct financial implications to the user or to the distributor</t>
+  </si>
+  <si>
+    <t>A compromised image from the source could result in inoperability of the vehicle due to loss of interoperability of update images</t>
+  </si>
+  <si>
+    <t>The malicous update image can pry on user data</t>
   </si>
 </sst>
 </file>
@@ -617,7 +677,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -640,11 +700,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -655,19 +752,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -676,12 +764,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -689,29 +771,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -721,6 +784,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1059,7 +1188,7 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+      <selection activeCell="J12" sqref="J12:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1082,1223 +1211,1223 @@
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="9" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="9" t="s">
+      <c r="I5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="9" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="9" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="9" t="s">
+      <c r="I7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="7" t="s">
+      <c r="I8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="9" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="9" t="s">
+      <c r="K9" s="21"/>
+      <c r="L9" s="6" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="9" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="9"/>
+      <c r="I10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="119" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="9" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="9"/>
+      <c r="K11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="9" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="9" t="s">
+      <c r="I13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="102" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="9" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="136" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="9" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="9" t="s">
+      <c r="I15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="9" t="s">
+      <c r="K16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="9" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="9" t="s">
+      <c r="I17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="9" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="9"/>
+      <c r="K18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="9" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="9"/>
+      <c r="I19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="9" t="s">
+      <c r="K20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="9" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="9" t="s">
+      <c r="I21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="119" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="9" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="K22" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="9"/>
+      <c r="K22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="9" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" s="9"/>
+      <c r="I23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="7" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K24" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="9" t="s">
+      <c r="K24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="9" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L25" s="9" t="s">
+      <c r="I25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="136" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="9" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="I26" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K26" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="9"/>
+      <c r="K26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="9" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L27" s="9"/>
+      <c r="I27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="7" t="s">
+      <c r="I28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="L28" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="9" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="9" t="s">
+      <c r="I29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="6" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="9" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L30" s="9"/>
+      <c r="I30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:12" ht="119" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="9" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K31" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L31" s="9"/>
+      <c r="K31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" s="6"/>
     </row>
     <row r="32" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L32" s="9" t="s">
+      <c r="I32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="9" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L33" s="9"/>
+      <c r="I33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="6"/>
     </row>
     <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="9" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L34" s="9"/>
+      <c r="I34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="6"/>
     </row>
     <row r="35" spans="1:12" ht="102" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="9" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="K35" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L35" s="9"/>
+      <c r="K35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="6"/>
     </row>
     <row r="36" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L36" s="9"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" s="6"/>
     </row>
     <row r="37" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L37" s="9"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="6"/>
     </row>
     <row r="38" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L38" s="9"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" s="6"/>
     </row>
     <row r="39" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L39" s="9"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" s="6"/>
     </row>
     <row r="40" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L40" s="9"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" s="6"/>
     </row>
     <row r="41" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L41" s="9"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" s="6"/>
     </row>
     <row r="42" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I42" s="24" t="s">
+      <c r="I42" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J42" s="9"/>
-      <c r="K42" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L42" s="9"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" s="6"/>
     </row>
     <row r="43" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="9" t="s">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I43" s="24" t="s">
+      <c r="I43" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L43" s="9"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" s="6"/>
     </row>
     <row r="44" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="9" t="s">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L44" s="9"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="6"/>
     </row>
     <row r="45" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="9" t="s">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I45" s="24" t="s">
+      <c r="I45" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L45" s="9"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" s="6"/>
     </row>
     <row r="46" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L46" s="9"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" s="6"/>
     </row>
     <row r="47" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="21"/>
+      <c r="B47" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L47" s="9"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" s="6"/>
     </row>
     <row r="48" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7" t="s">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G48" s="23" t="s">
+      <c r="G48" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I48" s="25" t="s">
+      <c r="I48" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J48" s="9" t="s">
+      <c r="J48" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="K48" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="L48" s="9" t="s">
+      <c r="L48" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="119" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="9" t="s">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I49" s="26" t="s">
+      <c r="I49" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="J49" s="9" t="s">
+      <c r="J49" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="K49" s="7"/>
-      <c r="L49" s="9" t="s">
+      <c r="K49" s="21"/>
+      <c r="L49" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="187" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="9" t="s">
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I50" s="25" t="s">
+      <c r="I50" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J50" s="9" t="s">
+      <c r="J50" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="K50" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="L50" s="9" t="s">
+      <c r="L50" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="102" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="9" t="s">
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I51" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="9" t="s">
+      <c r="I51" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" s="6"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L52" s="9"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L52" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="73">
@@ -2308,31 +2437,40 @@
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="K28:K29"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="G42:G45"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="F8:F11"/>
     <mergeCell ref="G8:G11"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="G24:G27"/>
     <mergeCell ref="D38:D41"/>
     <mergeCell ref="E38:E41"/>
     <mergeCell ref="F38:F41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="D12:D15"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="G16:G19"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="F42:F45"/>
     <mergeCell ref="F32:F35"/>
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="E24:E27"/>
     <mergeCell ref="F24:F27"/>
-    <mergeCell ref="C12:C27"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="C48:C51"/>
     <mergeCell ref="B12:B27"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="F28:F31"/>
@@ -2342,28 +2480,6 @@
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="E12:E15"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="K4:K5"/>
@@ -2371,10 +2487,23 @@
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="B4:B11"/>
     <mergeCell ref="C4:C11"/>
+    <mergeCell ref="K8:K9"/>
     <mergeCell ref="A36:A45"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A27"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="C12:C27"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2382,526 +2511,1240 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB4F663-6B56-0846-8441-E180BE896C71}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="21.5" customWidth="1"/>
     <col min="10" max="10" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+    </row>
+    <row r="3" spans="1:12" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="16" t="s">
+      <c r="D5" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="16" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="16" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:12" ht="170" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="16" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="16" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="16" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="1" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="1" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="29"/>
+      <c r="B16" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="1:12" ht="136" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B17" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="1" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
+      <c r="B18" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="16" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C19" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="16" t="s">
+      <c r="D19" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="29"/>
+      <c r="B23" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="16" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A24" s="29"/>
+      <c r="B24" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="16" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="29"/>
+      <c r="B25" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="20" spans="1:10" ht="170" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="16" t="s">
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+      <c r="A26" s="29"/>
+      <c r="B26" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-    </row>
-    <row r="21" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="16" t="s">
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="29"/>
+      <c r="B27" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="16" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="29"/>
+      <c r="B28" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="1" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="29"/>
+      <c r="B29" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="1" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="29"/>
+      <c r="B30" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="1" t="s">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="29"/>
+      <c r="B31" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="119" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B32" s="6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B33" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C33" s="21" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1" t="s">
+      <c r="D33" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C37" s="21" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1" t="s">
+      <c r="D37" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="1:12" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C45" s="21" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="170" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1" t="s">
+      <c r="D45" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C49" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="153" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B50" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C50" s="21" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1" t="s">
+      <c r="D50" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+    </row>
+    <row r="53" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C54" s="7" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1" t="s">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C55" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B56" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C56" s="7" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B57" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C57" s="7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C58" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="A14:A25"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A33"/>
+  <mergeCells count="46">
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A5:A16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A33:A49"/>
+    <mergeCell ref="A50:A55"/>
     <mergeCell ref="B2:L2"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="C37:C44"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="G41:G44"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="B45:B48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
